--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edenaxelrad/Desktop/FFL Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-main\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D12732-935E-A94C-AC09-4BD519CB71AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EDF66D-34EF-43DB-8525-A80E3E440031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17520" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Min Table" sheetId="2" r:id="rId1"/>
@@ -102,47 +102,47 @@
     <t>Week 7</t>
   </si>
   <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/blood-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/kauaireek-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/chasing-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/juju-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/cooking-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/london-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/dillon-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/daemon-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/krombopulos-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/freier-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/sir-modified.png</t>
-  </si>
-  <si>
-    <t>https://github.com/edenaxe/FFL-Dash/blob/main/Team%20Icons/fantasy-modified.png</t>
+    <t>Team Icons/kauaireek-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/chasing-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/juju-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/blood-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/cooking-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/london-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/dillon-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/daemon-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/krombopulos-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/freier-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/sir-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/fantasy-modified.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,18 +492,18 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -534,7 +534,7 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -548,7 +548,7 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -562,7 +562,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -576,7 +576,7 @@
         <v>116.58</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -590,7 +590,7 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -604,7 +604,7 @@
         <v>99.82</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -618,7 +618,7 @@
         <v>66.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -632,7 +632,7 @@
         <v>115.16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -646,7 +646,7 @@
         <v>105.42</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -660,7 +660,7 @@
         <v>134.52000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -674,7 +674,7 @@
         <v>116.92</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -688,7 +688,7 @@
         <v>119.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -702,7 +702,7 @@
         <v>135.18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -716,7 +716,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -730,7 +730,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -744,7 +744,7 @@
         <v>129.78</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -758,7 +758,7 @@
         <v>109.42</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -772,7 +772,7 @@
         <v>102.88</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -786,7 +786,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -800,7 +800,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -814,7 +814,7 @@
         <v>109.82</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -828,7 +828,7 @@
         <v>140.46</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -842,7 +842,7 @@
         <v>115.46</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -856,7 +856,7 @@
         <v>125.16</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>107.06</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -884,7 +884,7 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -898,7 +898,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -912,7 +912,7 @@
         <v>115.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -926,7 +926,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -940,7 +940,7 @@
         <v>94.88</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -954,7 +954,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -968,7 +968,7 @@
         <v>78.040000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -982,7 +982,7 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -996,7 +996,7 @@
         <v>111.72</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>109.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>112.18</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>113.28</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>107.98</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>112.12</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>159.26</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>116.32</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>92.26</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>106.52</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>162.97999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>116.48</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>121.58</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>105.04</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>139.46</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>108.34</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>135.62</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>80.28</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>101.52</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>62.98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>112.62</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>81.819999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>73.680000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>86.36</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -1542,10 +1542,10 @@
         <v>106.66</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1559,10 +1559,10 @@
         <v>117.42</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -1576,10 +1576,10 @@
         <v>93.2</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -1593,10 +1593,10 @@
         <v>117.34</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Downloads\FFL-Dash-main\FFL-Dash-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Desktop\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EDF66D-34EF-43DB-8525-A80E3E440031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01B7D76-2177-4173-A9E7-01B57983C1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Min Table" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="37">
   <si>
     <t>Points Against</t>
   </si>
@@ -136,16 +136,25 @@
   </si>
   <si>
     <t>Team Icons/fantasy-modified.png</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,11 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1741,212 @@
         <v>35</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="1">
+        <v>125.88</v>
+      </c>
+      <c r="D86" s="1">
+        <v>144.68</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="1">
+        <v>47.14</v>
+      </c>
+      <c r="D87" s="1">
+        <v>127.1</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="1">
+        <v>90.72</v>
+      </c>
+      <c r="D88" s="1">
+        <v>101.44</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="1">
+        <v>127.1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>47.14</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="1">
+        <v>130.24</v>
+      </c>
+      <c r="D90" s="1">
+        <v>92.12</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="1">
+        <v>113.64</v>
+      </c>
+      <c r="D91" s="1">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="1">
+        <v>144.28</v>
+      </c>
+      <c r="D92" s="1">
+        <v>109.14</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="1">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="D93" s="1">
+        <v>113.64</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="1">
+        <v>109.14</v>
+      </c>
+      <c r="D94" s="1">
+        <v>144.28</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="1">
+        <v>92.12</v>
+      </c>
+      <c r="D95" s="1">
+        <v>130.24</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="1">
+        <v>101.44</v>
+      </c>
+      <c r="D96" s="1">
+        <v>90.72</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" s="1">
+        <v>144.68</v>
+      </c>
+      <c r="D97" s="1">
+        <v>125.88</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Desktop\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01B7D76-2177-4173-A9E7-01B57983C1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB463AB-34C6-425F-ACE6-4522D55EFE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
   <si>
     <t>Points Against</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Ju Ju Smith Poopster</t>
   </si>
   <si>
-    <t>Blood in the water</t>
-  </si>
-  <si>
     <t>Cooking with Gas</t>
   </si>
   <si>
@@ -139,6 +136,12 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Bye Breece See You in ValHalla</t>
   </si>
 </sst>
 </file>
@@ -498,21 +501,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O65" sqref="O65"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -520,21 +523,21 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>116.92</v>
@@ -543,12 +546,12 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>115.16</v>
@@ -557,12 +560,12 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>99.82</v>
@@ -571,12 +574,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>134.52000000000001</v>
@@ -585,12 +588,12 @@
         <v>116.58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>105.42</v>
@@ -599,12 +602,12 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>81</v>
@@ -613,12 +616,12 @@
         <v>99.82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>119.7</v>
@@ -627,12 +630,12 @@
         <v>66.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>87.58</v>
@@ -641,12 +644,12 @@
         <v>115.16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>113.88</v>
@@ -655,12 +658,12 @@
         <v>105.42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>116.58</v>
@@ -669,12 +672,12 @@
         <v>134.52000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>111.36</v>
@@ -683,12 +686,12 @@
         <v>116.92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
       <c r="C13">
         <v>66.06</v>
@@ -697,7 +700,7 @@
         <v>119.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -711,7 +714,7 @@
         <v>135.18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -725,7 +728,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -739,9 +742,9 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -753,9 +756,9 @@
         <v>129.78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -767,9 +770,9 @@
         <v>109.42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -781,9 +784,9 @@
         <v>102.88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -795,9 +798,9 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -809,9 +812,9 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -823,9 +826,9 @@
         <v>109.82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -837,9 +840,9 @@
         <v>140.46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -851,9 +854,9 @@
         <v>115.46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -865,12 +868,12 @@
         <v>125.16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>96.1</v>
@@ -879,12 +882,12 @@
         <v>107.06</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1">
         <v>111.72</v>
@@ -893,12 +896,12 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
         <v>115.42</v>
@@ -907,12 +910,12 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1">
         <v>100.6</v>
@@ -921,12 +924,12 @@
         <v>115.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>107.06</v>
@@ -935,12 +938,12 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>73.86</v>
@@ -949,12 +952,12 @@
         <v>94.88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1">
         <v>109.78</v>
@@ -963,12 +966,12 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>90.04</v>
@@ -977,12 +980,12 @@
         <v>78.040000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>94.88</v>
@@ -991,12 +994,12 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>73.599999999999994</v>
@@ -1005,12 +1008,12 @@
         <v>111.72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>102.8</v>
@@ -1019,12 +1022,12 @@
         <v>109.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>78.040000000000006</v>
@@ -1033,12 +1036,12 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>113.28</v>
@@ -1047,12 +1050,12 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1">
         <v>173</v>
@@ -1061,12 +1064,12 @@
         <v>112.18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
         <v>83.36</v>
@@ -1075,12 +1078,12 @@
         <v>113.28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
         <v>129.16</v>
@@ -1089,12 +1092,12 @@
         <v>107.98</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>112.18</v>
@@ -1103,12 +1106,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="1">
         <v>107.98</v>
@@ -1117,12 +1120,12 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
         <v>159.26</v>
@@ -1131,12 +1134,12 @@
         <v>112.12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
         <v>110</v>
@@ -1145,12 +1148,12 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
         <v>116.32</v>
@@ -1159,12 +1162,12 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
         <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>19</v>
       </c>
       <c r="C47" s="1">
         <v>112.12</v>
@@ -1173,12 +1176,12 @@
         <v>159.26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1">
         <v>82.02</v>
@@ -1187,12 +1190,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1">
         <v>93.46</v>
@@ -1201,12 +1204,12 @@
         <v>116.32</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1">
         <v>116.48</v>
@@ -1215,12 +1218,12 @@
         <v>92.26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="1">
         <v>106.52</v>
@@ -1229,12 +1232,12 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1">
         <v>73.16</v>
@@ -1243,12 +1246,12 @@
         <v>106.52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1">
         <v>121.58</v>
@@ -1257,12 +1260,12 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
         <v>88.7</v>
@@ -1271,12 +1274,12 @@
         <v>162.97999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1">
         <v>92.26</v>
@@ -1285,12 +1288,12 @@
         <v>116.48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1">
         <v>162.97999999999999</v>
@@ -1299,12 +1302,12 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1">
         <v>105.04</v>
@@ -1313,12 +1316,12 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
         <v>20</v>
-      </c>
-      <c r="B58" t="s">
-        <v>21</v>
       </c>
       <c r="C58" s="1">
         <v>71.959999999999994</v>
@@ -1327,12 +1330,12 @@
         <v>121.58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="1">
         <v>99.86</v>
@@ -1341,12 +1344,12 @@
         <v>105.04</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
         <v>108.34</v>
@@ -1355,12 +1358,12 @@
         <v>139.46</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1">
         <v>139.46</v>
@@ -1369,12 +1372,12 @@
         <v>108.34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1">
         <v>126.8</v>
@@ -1383,12 +1386,12 @@
         <v>135.62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="1">
         <v>81.819999999999993</v>
@@ -1397,12 +1400,12 @@
         <v>80.28</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64" s="1">
         <v>111.5</v>
@@ -1411,12 +1414,12 @@
         <v>101.52</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1">
         <v>105.4</v>
@@ -1425,12 +1428,12 @@
         <v>62.98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1">
         <v>73.680000000000007</v>
@@ -1439,12 +1442,12 @@
         <v>112.62</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67" s="1">
         <v>80.28</v>
@@ -1453,12 +1456,12 @@
         <v>81.819999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="1">
         <v>101.52</v>
@@ -1467,12 +1470,12 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1">
         <v>112.62</v>
@@ -1481,12 +1484,12 @@
         <v>73.680000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1">
         <v>135.62</v>
@@ -1495,12 +1498,12 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" s="1">
         <v>86.36</v>
@@ -1509,12 +1512,12 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72" s="1">
         <v>79.400000000000006</v>
@@ -1523,12 +1526,12 @@
         <v>86.36</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" s="1">
         <v>62.98</v>
@@ -1537,12 +1540,12 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="1">
         <v>117.34</v>
@@ -1550,16 +1553,14 @@
       <c r="D74" s="1">
         <v>106.66</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" s="1">
         <v>133.62</v>
@@ -1567,16 +1568,14 @@
       <c r="D75" s="1">
         <v>117.42</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" s="1">
         <v>108.7</v>
@@ -1584,16 +1583,14 @@
       <c r="D76" s="1">
         <v>93.2</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" s="1">
         <v>106.66</v>
@@ -1601,16 +1598,14 @@
       <c r="D77" s="1">
         <v>117.34</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" s="1">
         <v>67.260000000000005</v>
@@ -1618,16 +1613,14 @@
       <c r="D78" s="1">
         <v>99.12</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" s="1">
         <v>61.8</v>
@@ -1635,16 +1628,14 @@
       <c r="D79" s="1">
         <v>138.72</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="1">
         <v>138.72</v>
@@ -1652,16 +1643,14 @@
       <c r="D80" s="1">
         <v>61.8</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="1">
         <v>93.2</v>
@@ -1669,16 +1658,14 @@
       <c r="D81" s="1">
         <v>108.7</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="1">
         <v>117.42</v>
@@ -1686,16 +1673,14 @@
       <c r="D82" s="1">
         <v>133.62</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" s="1">
         <v>106.3</v>
@@ -1703,16 +1688,14 @@
       <c r="D83" s="1">
         <v>90.2</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="1">
         <v>99.12</v>
@@ -1720,16 +1703,14 @@
       <c r="D84" s="1">
         <v>67.260000000000005</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" s="1">
         <v>90.2</v>
@@ -1737,16 +1718,14 @@
       <c r="D85" s="1">
         <v>106.3</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C86" s="1">
         <v>125.88</v>
@@ -1754,16 +1733,13 @@
       <c r="D86" s="1">
         <v>144.68</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" s="1">
         <v>47.14</v>
@@ -1771,16 +1747,13 @@
       <c r="D87" s="1">
         <v>127.1</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" s="1">
         <v>90.72</v>
@@ -1788,16 +1761,13 @@
       <c r="D88" s="1">
         <v>101.44</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" s="1">
         <v>127.1</v>
@@ -1805,16 +1775,13 @@
       <c r="D89" s="1">
         <v>47.14</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" s="1">
         <v>130.24</v>
@@ -1822,16 +1789,13 @@
       <c r="D90" s="1">
         <v>92.12</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C91" s="1">
         <v>113.64</v>
@@ -1839,16 +1803,13 @@
       <c r="D91" s="1">
         <v>141.30000000000001</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C92" s="1">
         <v>144.28</v>
@@ -1856,16 +1817,13 @@
       <c r="D92" s="1">
         <v>109.14</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" s="1">
         <v>141.30000000000001</v>
@@ -1873,16 +1831,13 @@
       <c r="D93" s="1">
         <v>113.64</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" s="1">
         <v>109.14</v>
@@ -1890,16 +1845,13 @@
       <c r="D94" s="1">
         <v>144.28</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" s="1">
         <v>92.12</v>
@@ -1907,16 +1859,13 @@
       <c r="D95" s="1">
         <v>130.24</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" s="1">
         <v>101.44</v>
@@ -1924,16 +1873,13 @@
       <c r="D96" s="1">
         <v>90.72</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" s="1">
         <v>144.68</v>
@@ -1941,8 +1887,209 @@
       <c r="D97" s="1">
         <v>125.88</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>35</v>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="1">
+        <v>119.44</v>
+      </c>
+      <c r="D98" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="1">
+        <v>60.2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>119.44</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" s="1">
+        <v>117.92</v>
+      </c>
+      <c r="D100" s="1">
+        <v>82.4</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="1">
+        <v>122.92</v>
+      </c>
+      <c r="D101" s="1">
+        <v>108.44</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="D102" s="1">
+        <v>107.14</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="1">
+        <v>99</v>
+      </c>
+      <c r="D103" s="1">
+        <v>138.5</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="1">
+        <v>108.44</v>
+      </c>
+      <c r="D104" s="1">
+        <v>122.92</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="1">
+        <v>116.52</v>
+      </c>
+      <c r="D105" s="1">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="1">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="D106" s="1">
+        <v>116.52</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="1">
+        <v>82.4</v>
+      </c>
+      <c r="D107" s="1">
+        <v>117.92</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="1">
+        <v>138.5</v>
+      </c>
+      <c r="D108" s="1">
+        <v>99</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="1">
+        <v>107.14</v>
+      </c>
+      <c r="D109" s="1">
+        <v>102.8</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Desktop\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB463AB-34C6-425F-ACE6-4522D55EFE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9514365-E70E-4795-8071-E474BBA34BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="39">
   <si>
     <t>Points Against</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Cooking with Gas</t>
   </si>
   <si>
-    <t>London Bridge is Down</t>
-  </si>
-  <si>
     <t>Dillon Panthers</t>
   </si>
   <si>
@@ -108,15 +105,9 @@
     <t>Team Icons/juju-modified.png</t>
   </si>
   <si>
-    <t>Team Icons/blood-modified.png</t>
-  </si>
-  <si>
     <t>Team Icons/cooking-modified.png</t>
   </si>
   <si>
-    <t>Team Icons/london-modified.png</t>
-  </si>
-  <si>
     <t>Team Icons/dillon-modified.png</t>
   </si>
   <si>
@@ -142,6 +133,18 @@
   </si>
   <si>
     <t>Bye Breece See You in ValHalla</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Dulcich de Leche</t>
+  </si>
+  <si>
+    <t>Team Icons/breece-modified.png</t>
+  </si>
+  <si>
+    <t>Team Icons/dulcich-modified.png</t>
   </si>
 </sst>
 </file>
@@ -501,21 +504,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -523,21 +526,21 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>116.92</v>
@@ -546,12 +549,12 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>115.16</v>
@@ -560,12 +563,12 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>99.82</v>
@@ -574,12 +577,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>134.52000000000001</v>
@@ -588,12 +591,12 @@
         <v>116.58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>105.42</v>
@@ -602,12 +605,12 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>81</v>
@@ -616,12 +619,12 @@
         <v>99.82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>119.7</v>
@@ -630,12 +633,12 @@
         <v>66.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>87.58</v>
@@ -644,12 +647,12 @@
         <v>115.16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>113.88</v>
@@ -658,12 +661,12 @@
         <v>105.42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>116.58</v>
@@ -672,12 +675,12 @@
         <v>134.52000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>111.36</v>
@@ -686,12 +689,12 @@
         <v>116.92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
       <c r="C13">
         <v>66.06</v>
@@ -700,7 +703,7 @@
         <v>119.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -714,7 +717,7 @@
         <v>135.18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -728,7 +731,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -742,9 +745,9 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -756,7 +759,7 @@
         <v>129.78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -770,9 +773,9 @@
         <v>109.42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -784,9 +787,9 @@
         <v>102.88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -798,9 +801,9 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -812,9 +815,9 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -826,9 +829,9 @@
         <v>109.82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -840,9 +843,9 @@
         <v>140.46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -854,9 +857,9 @@
         <v>115.46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -868,12 +871,12 @@
         <v>125.16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>96.1</v>
@@ -882,12 +885,12 @@
         <v>107.06</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1">
         <v>111.72</v>
@@ -896,12 +899,12 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1">
         <v>115.42</v>
@@ -910,12 +913,12 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="1">
         <v>100.6</v>
@@ -924,12 +927,12 @@
         <v>115.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>107.06</v>
@@ -938,12 +941,12 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>73.86</v>
@@ -952,12 +955,12 @@
         <v>94.88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1">
         <v>109.78</v>
@@ -966,12 +969,12 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>90.04</v>
@@ -980,12 +983,12 @@
         <v>78.040000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>94.88</v>
@@ -994,12 +997,12 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>73.599999999999994</v>
@@ -1008,12 +1011,12 @@
         <v>111.72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <v>102.8</v>
@@ -1022,12 +1025,12 @@
         <v>109.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37">
         <v>78.040000000000006</v>
@@ -1036,12 +1039,12 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38">
         <v>113.28</v>
@@ -1050,12 +1053,12 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1">
         <v>173</v>
@@ -1064,12 +1067,12 @@
         <v>112.18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>83.36</v>
@@ -1078,12 +1081,12 @@
         <v>113.28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <v>129.16</v>
@@ -1092,12 +1095,12 @@
         <v>107.98</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1">
         <v>112.18</v>
@@ -1106,12 +1109,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
         <v>107.98</v>
@@ -1120,12 +1123,12 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1">
         <v>159.26</v>
@@ -1134,12 +1137,12 @@
         <v>112.12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>110</v>
@@ -1148,12 +1151,12 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>116.32</v>
@@ -1162,12 +1165,12 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
         <v>17</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>112.12</v>
@@ -1176,12 +1179,12 @@
         <v>159.26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>82.02</v>
@@ -1190,12 +1193,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1">
         <v>93.46</v>
@@ -1204,12 +1207,12 @@
         <v>116.32</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
         <v>116.48</v>
@@ -1218,12 +1221,12 @@
         <v>92.26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
         <v>106.52</v>
@@ -1232,12 +1235,12 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="1">
         <v>73.16</v>
@@ -1246,12 +1249,12 @@
         <v>106.52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
         <v>121.58</v>
@@ -1260,12 +1263,12 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1">
         <v>88.7</v>
@@ -1274,12 +1277,12 @@
         <v>162.97999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" s="1">
         <v>92.26</v>
@@ -1288,12 +1291,12 @@
         <v>116.48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1">
         <v>162.97999999999999</v>
@@ -1302,12 +1305,12 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C57" s="1">
         <v>105.04</v>
@@ -1316,12 +1319,12 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
         <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>20</v>
       </c>
       <c r="C58" s="1">
         <v>71.959999999999994</v>
@@ -1330,12 +1333,12 @@
         <v>121.58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1">
         <v>99.86</v>
@@ -1344,12 +1347,12 @@
         <v>105.04</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1">
         <v>108.34</v>
@@ -1358,12 +1361,12 @@
         <v>139.46</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
         <v>139.46</v>
@@ -1372,12 +1375,12 @@
         <v>108.34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="1">
         <v>126.8</v>
@@ -1386,12 +1389,12 @@
         <v>135.62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1">
         <v>81.819999999999993</v>
@@ -1400,12 +1403,12 @@
         <v>80.28</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1">
         <v>111.5</v>
@@ -1414,12 +1417,12 @@
         <v>101.52</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="1">
         <v>105.4</v>
@@ -1428,12 +1431,12 @@
         <v>62.98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1">
         <v>73.680000000000007</v>
@@ -1442,12 +1445,12 @@
         <v>112.62</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="1">
         <v>80.28</v>
@@ -1456,12 +1459,12 @@
         <v>81.819999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1">
         <v>101.52</v>
@@ -1470,12 +1473,12 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" s="1">
         <v>112.62</v>
@@ -1484,12 +1487,12 @@
         <v>73.680000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70" s="1">
         <v>135.62</v>
@@ -1498,12 +1501,12 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="1">
         <v>86.36</v>
@@ -1512,12 +1515,12 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="1">
         <v>79.400000000000006</v>
@@ -1526,12 +1529,12 @@
         <v>86.36</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" s="1">
         <v>62.98</v>
@@ -1540,12 +1543,12 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74" s="1">
         <v>117.34</v>
@@ -1555,12 +1558,12 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75" s="1">
         <v>133.62</v>
@@ -1570,12 +1573,12 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C76" s="1">
         <v>108.7</v>
@@ -1585,12 +1588,12 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77" s="1">
         <v>106.66</v>
@@ -1600,12 +1603,12 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78" s="1">
         <v>67.260000000000005</v>
@@ -1615,12 +1618,12 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79" s="1">
         <v>61.8</v>
@@ -1630,12 +1633,12 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" s="1">
         <v>138.72</v>
@@ -1645,12 +1648,12 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" s="1">
         <v>93.2</v>
@@ -1660,12 +1663,12 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" s="1">
         <v>117.42</v>
@@ -1675,12 +1678,12 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="1">
         <v>106.3</v>
@@ -1690,12 +1693,12 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84" s="1">
         <v>99.12</v>
@@ -1705,12 +1708,12 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C85" s="1">
         <v>90.2</v>
@@ -1720,12 +1723,12 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C86" s="1">
         <v>125.88</v>
@@ -1734,12 +1737,12 @@
         <v>144.68</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1">
         <v>47.14</v>
@@ -1748,12 +1751,12 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C88" s="1">
         <v>90.72</v>
@@ -1762,12 +1765,12 @@
         <v>101.44</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C89" s="1">
         <v>127.1</v>
@@ -1776,12 +1779,12 @@
         <v>47.14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C90" s="1">
         <v>130.24</v>
@@ -1790,12 +1793,12 @@
         <v>92.12</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C91" s="1">
         <v>113.64</v>
@@ -1804,12 +1807,12 @@
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C92" s="1">
         <v>144.28</v>
@@ -1818,12 +1821,12 @@
         <v>109.14</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C93" s="1">
         <v>141.30000000000001</v>
@@ -1832,12 +1835,12 @@
         <v>113.64</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C94" s="1">
         <v>109.14</v>
@@ -1846,12 +1849,12 @@
         <v>144.28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C95" s="1">
         <v>92.12</v>
@@ -1860,12 +1863,12 @@
         <v>130.24</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1">
         <v>101.44</v>
@@ -1874,12 +1877,12 @@
         <v>90.72</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1">
         <v>144.68</v>
@@ -1888,12 +1891,12 @@
         <v>125.88</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C98" s="1">
         <v>119.44</v>
@@ -1901,16 +1904,14 @@
       <c r="D98" s="1">
         <v>60.2</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C99" s="1">
         <v>60.2</v>
@@ -1918,16 +1919,14 @@
       <c r="D99" s="1">
         <v>119.44</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C100" s="1">
         <v>117.92</v>
@@ -1935,16 +1934,14 @@
       <c r="D100" s="1">
         <v>82.4</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C101" s="1">
         <v>122.92</v>
@@ -1952,16 +1949,14 @@
       <c r="D101" s="1">
         <v>108.44</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C102" s="1">
         <v>102.8</v>
@@ -1969,16 +1964,14 @@
       <c r="D102" s="1">
         <v>107.14</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -1986,16 +1979,14 @@
       <c r="D103" s="1">
         <v>138.5</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C104" s="1">
         <v>108.44</v>
@@ -2003,16 +1994,14 @@
       <c r="D104" s="1">
         <v>122.92</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C105" s="1">
         <v>116.52</v>
@@ -2020,16 +2009,14 @@
       <c r="D105" s="1">
         <v>75.959999999999994</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C106" s="1">
         <v>75.959999999999994</v>
@@ -2037,16 +2024,14 @@
       <c r="D106" s="1">
         <v>116.52</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C107" s="1">
         <v>82.4</v>
@@ -2054,16 +2039,14 @@
       <c r="D107" s="1">
         <v>117.92</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C108" s="1">
         <v>138.5</v>
@@ -2071,16 +2054,14 @@
       <c r="D108" s="1">
         <v>99</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>12</v>
-      </c>
-      <c r="B109" t="s">
-        <v>36</v>
       </c>
       <c r="C109" s="1">
         <v>107.14</v>
@@ -2088,11 +2069,216 @@
       <c r="D109" s="1">
         <v>102.8</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="D110" s="1">
+        <v>125.24</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="1">
+        <v>118.82</v>
+      </c>
+      <c r="D111" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="1">
+        <v>62.54</v>
+      </c>
+      <c r="D112" s="1">
+        <v>120.06</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>34</v>
       </c>
+      <c r="B113" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="1">
+        <v>119.2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>127.48</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="1">
+        <v>120.06</v>
+      </c>
+      <c r="D114" s="1">
+        <v>62.54</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="D115" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>35</v>
+      </c>
+      <c r="C116" s="1">
+        <v>125.24</v>
+      </c>
+      <c r="D116" s="1">
+        <v>76.7</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="1">
+        <v>127.48</v>
+      </c>
+      <c r="D117" s="1">
+        <v>118.17</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="1">
+        <v>87.24</v>
+      </c>
+      <c r="D118" s="1">
+        <v>125.68</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C119" s="1">
+        <v>89.1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>96.3</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1">
+        <v>125.68</v>
+      </c>
+      <c r="D120" s="1">
+        <v>87.24</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="D121" s="1">
+        <v>118.82</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A126:A137">
+    <sortCondition ref="A126"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Desktop\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9514365-E70E-4795-8071-E474BBA34BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7B699-CA43-47CF-8D81-F4FB21A5E830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Min Table" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
   <si>
     <t>Points Against</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Daemon and the Rightful Heirs</t>
   </si>
   <si>
-    <t>Sir Trey Lancelot (IR)</t>
-  </si>
-  <si>
     <t>Fantasy Football Champion 2022</t>
   </si>
   <si>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t>Team Icons/dulcich-modified.png</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Christian Kirk Cousins</t>
   </si>
 </sst>
 </file>
@@ -504,21 +507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J119" sqref="J118:J119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -526,21 +529,21 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>116.92</v>
@@ -549,12 +552,12 @@
         <v>111.36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>115.16</v>
@@ -563,12 +566,12 @@
         <v>87.58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>99.82</v>
@@ -577,12 +580,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>134.52000000000001</v>
@@ -591,12 +594,12 @@
         <v>116.58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>105.42</v>
@@ -605,12 +608,12 @@
         <v>113.88</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>81</v>
@@ -619,12 +622,12 @@
         <v>99.82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>119.7</v>
@@ -633,12 +636,12 @@
         <v>66.06</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>87.58</v>
@@ -647,12 +650,12 @@
         <v>115.16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>113.88</v>
@@ -661,12 +664,12 @@
         <v>105.42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>116.58</v>
@@ -675,12 +678,12 @@
         <v>134.52000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>111.36</v>
@@ -689,12 +692,12 @@
         <v>116.92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
       </c>
       <c r="C13">
         <v>66.06</v>
@@ -703,7 +706,7 @@
         <v>119.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -717,7 +720,7 @@
         <v>135.18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -731,7 +734,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -745,9 +748,9 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -759,7 +762,7 @@
         <v>129.78</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -773,9 +776,9 @@
         <v>109.42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -787,7 +790,7 @@
         <v>102.88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -801,7 +804,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -815,9 +818,9 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -829,9 +832,9 @@
         <v>109.82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -843,9 +846,9 @@
         <v>140.46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -857,9 +860,9 @@
         <v>115.46</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -871,12 +874,12 @@
         <v>125.16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>96.1</v>
@@ -885,12 +888,12 @@
         <v>107.06</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1">
         <v>111.72</v>
@@ -899,12 +902,12 @@
         <v>73.599999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1">
         <v>115.42</v>
@@ -913,12 +916,12 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1">
         <v>100.6</v>
@@ -927,12 +930,12 @@
         <v>115.42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>107.06</v>
@@ -941,12 +944,12 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>73.86</v>
@@ -955,12 +958,12 @@
         <v>94.88</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1">
         <v>109.78</v>
@@ -969,12 +972,12 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>90.04</v>
@@ -983,12 +986,12 @@
         <v>78.040000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>94.88</v>
@@ -997,12 +1000,12 @@
         <v>73.86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>73.599999999999994</v>
@@ -1011,12 +1014,12 @@
         <v>111.72</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>102.8</v>
@@ -1025,12 +1028,12 @@
         <v>109.78</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>78.040000000000006</v>
@@ -1039,12 +1042,12 @@
         <v>90.04</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38">
         <v>113.28</v>
@@ -1053,12 +1056,12 @@
         <v>83.36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <v>173</v>
@@ -1067,12 +1070,12 @@
         <v>112.18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <v>83.36</v>
@@ -1081,12 +1084,12 @@
         <v>113.28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="1">
         <v>129.16</v>
@@ -1095,12 +1098,12 @@
         <v>107.98</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1">
         <v>112.18</v>
@@ -1109,12 +1112,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1">
         <v>107.98</v>
@@ -1123,12 +1126,12 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="1">
         <v>159.26</v>
@@ -1137,12 +1140,12 @@
         <v>112.12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" s="1">
         <v>110</v>
@@ -1151,12 +1154,12 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1">
         <v>116.32</v>
@@ -1165,12 +1168,12 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
         <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
       </c>
       <c r="C47" s="1">
         <v>112.12</v>
@@ -1179,12 +1182,12 @@
         <v>159.26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1">
         <v>82.02</v>
@@ -1193,12 +1196,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1">
         <v>93.46</v>
@@ -1207,12 +1210,12 @@
         <v>116.32</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
         <v>116.48</v>
@@ -1221,12 +1224,12 @@
         <v>92.26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
         <v>106.52</v>
@@ -1235,12 +1238,12 @@
         <v>73.16</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1">
         <v>73.16</v>
@@ -1249,12 +1252,12 @@
         <v>106.52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1">
         <v>121.58</v>
@@ -1263,12 +1266,12 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1">
         <v>88.7</v>
@@ -1277,12 +1280,12 @@
         <v>162.97999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
         <v>92.26</v>
@@ -1291,12 +1294,12 @@
         <v>116.48</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1">
         <v>162.97999999999999</v>
@@ -1305,12 +1308,12 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1">
         <v>105.04</v>
@@ -1319,12 +1322,12 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
         <v>18</v>
-      </c>
-      <c r="B58" t="s">
-        <v>19</v>
       </c>
       <c r="C58" s="1">
         <v>71.959999999999994</v>
@@ -1333,12 +1336,12 @@
         <v>121.58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1">
         <v>99.86</v>
@@ -1347,12 +1350,12 @@
         <v>105.04</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
         <v>108.34</v>
@@ -1361,12 +1364,12 @@
         <v>139.46</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1">
         <v>139.46</v>
@@ -1375,12 +1378,12 @@
         <v>108.34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" s="1">
         <v>126.8</v>
@@ -1389,12 +1392,12 @@
         <v>135.62</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1">
         <v>81.819999999999993</v>
@@ -1403,12 +1406,12 @@
         <v>80.28</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" s="1">
         <v>111.5</v>
@@ -1417,12 +1420,12 @@
         <v>101.52</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1">
         <v>105.4</v>
@@ -1431,12 +1434,12 @@
         <v>62.98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C66" s="1">
         <v>73.680000000000007</v>
@@ -1445,12 +1448,12 @@
         <v>112.62</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1">
         <v>80.28</v>
@@ -1459,12 +1462,12 @@
         <v>81.819999999999993</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C68" s="1">
         <v>101.52</v>
@@ -1473,12 +1476,12 @@
         <v>111.5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C69" s="1">
         <v>112.62</v>
@@ -1487,12 +1490,12 @@
         <v>73.680000000000007</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70" s="1">
         <v>135.62</v>
@@ -1501,12 +1504,12 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C71" s="1">
         <v>86.36</v>
@@ -1515,12 +1518,12 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1">
         <v>79.400000000000006</v>
@@ -1529,12 +1532,12 @@
         <v>86.36</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1">
         <v>62.98</v>
@@ -1543,12 +1546,12 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1">
         <v>117.34</v>
@@ -1558,12 +1561,12 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="1">
         <v>133.62</v>
@@ -1573,12 +1576,12 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="1">
         <v>108.7</v>
@@ -1588,12 +1591,12 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="1">
         <v>106.66</v>
@@ -1603,12 +1606,12 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1">
         <v>67.260000000000005</v>
@@ -1618,12 +1621,12 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="1">
         <v>61.8</v>
@@ -1633,12 +1636,12 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="1">
         <v>138.72</v>
@@ -1648,12 +1651,12 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="1">
         <v>93.2</v>
@@ -1663,12 +1666,12 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1">
         <v>117.42</v>
@@ -1678,12 +1681,12 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="1">
         <v>106.3</v>
@@ -1693,12 +1696,12 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C84" s="1">
         <v>99.12</v>
@@ -1708,12 +1711,12 @@
       </c>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85" s="1">
         <v>90.2</v>
@@ -1723,12 +1726,12 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" s="1">
         <v>125.88</v>
@@ -1737,12 +1740,12 @@
         <v>144.68</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1">
         <v>47.14</v>
@@ -1751,12 +1754,12 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" s="1">
         <v>90.72</v>
@@ -1765,12 +1768,12 @@
         <v>101.44</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89" s="1">
         <v>127.1</v>
@@ -1779,12 +1782,12 @@
         <v>47.14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" s="1">
         <v>130.24</v>
@@ -1793,12 +1796,12 @@
         <v>92.12</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91" s="1">
         <v>113.64</v>
@@ -1807,12 +1810,12 @@
         <v>141.30000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" s="1">
         <v>144.28</v>
@@ -1821,12 +1824,12 @@
         <v>109.14</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" s="1">
         <v>141.30000000000001</v>
@@ -1835,12 +1838,12 @@
         <v>113.64</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1">
         <v>109.14</v>
@@ -1849,12 +1852,12 @@
         <v>144.28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1">
         <v>92.12</v>
@@ -1863,12 +1866,12 @@
         <v>130.24</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" s="1">
         <v>101.44</v>
@@ -1877,12 +1880,12 @@
         <v>90.72</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1">
         <v>144.68</v>
@@ -1891,12 +1894,12 @@
         <v>125.88</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C98" s="1">
         <v>119.44</v>
@@ -1906,12 +1909,12 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C99" s="1">
         <v>60.2</v>
@@ -1921,12 +1924,12 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" s="1">
         <v>117.92</v>
@@ -1936,12 +1939,12 @@
       </c>
       <c r="E100" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C101" s="1">
         <v>122.92</v>
@@ -1951,12 +1954,12 @@
       </c>
       <c r="E101" s="2"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C102" s="1">
         <v>102.8</v>
@@ -1966,12 +1969,12 @@
       </c>
       <c r="E102" s="2"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" s="1">
         <v>99</v>
@@ -1981,12 +1984,12 @@
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1">
         <v>108.44</v>
@@ -1996,12 +1999,12 @@
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" s="1">
         <v>116.52</v>
@@ -2011,12 +2014,12 @@
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" s="1">
         <v>75.959999999999994</v>
@@ -2026,12 +2029,12 @@
       </c>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" s="1">
         <v>82.4</v>
@@ -2041,12 +2044,12 @@
       </c>
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" s="1">
         <v>138.5</v>
@@ -2056,12 +2059,12 @@
       </c>
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" s="1">
         <v>107.14</v>
@@ -2071,12 +2074,12 @@
       </c>
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C110" s="1">
         <v>76.7</v>
@@ -2084,16 +2087,14 @@
       <c r="D110" s="1">
         <v>125.24</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
         <v>118.82</v>
@@ -2101,16 +2102,14 @@
       <c r="D111" s="1">
         <v>79.8</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C112" s="1">
         <v>62.54</v>
@@ -2118,16 +2117,14 @@
       <c r="D112" s="1">
         <v>120.06</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" t="s">
         <v>34</v>
-      </c>
-      <c r="B113" t="s">
-        <v>35</v>
       </c>
       <c r="C113" s="1">
         <v>119.2</v>
@@ -2135,16 +2132,14 @@
       <c r="D113" s="1">
         <v>127.48</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C114" s="1">
         <v>120.06</v>
@@ -2152,16 +2147,14 @@
       <c r="D114" s="1">
         <v>62.54</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C115" s="1">
         <v>96.3</v>
@@ -2169,16 +2162,14 @@
       <c r="D115" s="1">
         <v>89.1</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C116" s="1">
         <v>125.24</v>
@@ -2186,16 +2177,14 @@
       <c r="D116" s="1">
         <v>76.7</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C117" s="1">
         <v>127.48</v>
@@ -2203,16 +2192,14 @@
       <c r="D117" s="1">
         <v>118.17</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C118" s="1">
         <v>87.24</v>
@@ -2220,16 +2207,14 @@
       <c r="D118" s="1">
         <v>125.68</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C119" s="1">
         <v>89.1</v>
@@ -2237,16 +2222,14 @@
       <c r="D119" s="1">
         <v>96.3</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C120" s="1">
         <v>125.68</v>
@@ -2254,16 +2237,14 @@
       <c r="D120" s="1">
         <v>87.24</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C121" s="1">
         <v>79.8</v>
@@ -2271,8 +2252,210 @@
       <c r="D121" s="1">
         <v>118.82</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>31</v>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="1">
+        <v>133.6</v>
+      </c>
+      <c r="D122" s="1">
+        <v>74.42</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="D123" s="1">
+        <v>189.26</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="1">
+        <v>92.66</v>
+      </c>
+      <c r="D124" s="1">
+        <v>75</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="D125" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="1">
+        <v>89.08</v>
+      </c>
+      <c r="D126" s="1">
+        <v>135.41999999999999</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="1">
+        <v>135.41999999999999</v>
+      </c>
+      <c r="D127" s="1">
+        <v>89.08</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="1">
+        <v>189.26</v>
+      </c>
+      <c r="D128" s="1">
+        <v>94.5</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="1">
+        <v>74.42</v>
+      </c>
+      <c r="D129" s="1">
+        <v>133.6</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="1">
+        <v>104.34</v>
+      </c>
+      <c r="D130" s="1">
+        <v>93.68</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="1">
+        <v>93.68</v>
+      </c>
+      <c r="D131" s="1">
+        <v>104.34</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="1">
+        <v>94.6</v>
+      </c>
+      <c r="D132" s="1">
+        <v>81.3</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="1">
+        <v>75</v>
+      </c>
+      <c r="D133" s="1">
+        <v>92.66</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Desktop\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7B699-CA43-47CF-8D81-F4FB21A5E830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CFE0A2-5A97-430C-AA21-3B08460A80E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -18,17 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Min Table'!$A$41:$B$41</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="41">
   <si>
     <t>Points Against</t>
   </si>
@@ -148,6 +156,9 @@
   </si>
   <si>
     <t>Christian Kirk Cousins</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
 </sst>
 </file>
@@ -507,11 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J119" sqref="J118:J119"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2267,9 +2278,7 @@
       <c r="D122" s="1">
         <v>74.42</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
@@ -2284,9 +2293,7 @@
       <c r="D123" s="1">
         <v>189.26</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
@@ -2301,9 +2308,7 @@
       <c r="D124" s="1">
         <v>75</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
@@ -2318,9 +2323,7 @@
       <c r="D125" s="1">
         <v>94.6</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
@@ -2335,9 +2338,7 @@
       <c r="D126" s="1">
         <v>135.41999999999999</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
@@ -2352,9 +2353,7 @@
       <c r="D127" s="1">
         <v>89.08</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
@@ -2369,9 +2368,7 @@
       <c r="D128" s="1">
         <v>94.5</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
@@ -2386,9 +2383,7 @@
       <c r="D129" s="1">
         <v>133.6</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
@@ -2403,9 +2398,7 @@
       <c r="D130" s="1">
         <v>93.68</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
@@ -2420,9 +2413,7 @@
       <c r="D131" s="1">
         <v>104.34</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
@@ -2437,9 +2428,7 @@
       <c r="D132" s="1">
         <v>81.3</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
@@ -2454,7 +2443,209 @@
       <c r="D133" s="1">
         <v>92.66</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="D134" s="1">
+        <v>97.56</v>
+      </c>
+      <c r="E134" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="1">
+        <v>144.56</v>
+      </c>
+      <c r="D135" s="1">
+        <v>130.94</v>
+      </c>
+      <c r="E135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>40</v>
+      </c>
+      <c r="C136" s="1">
+        <v>92.26</v>
+      </c>
+      <c r="D136" s="1">
+        <v>115.92</v>
+      </c>
+      <c r="E136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" s="1">
+        <v>114.16</v>
+      </c>
+      <c r="D137" s="1">
+        <v>115.22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="1">
+        <v>131.44</v>
+      </c>
+      <c r="D138" s="1">
+        <v>106.02</v>
+      </c>
+      <c r="E138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" t="s">
+        <v>40</v>
+      </c>
+      <c r="C139" s="1">
+        <v>115.92</v>
+      </c>
+      <c r="D139" s="1">
+        <v>92.26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>40</v>
+      </c>
+      <c r="C140" s="1">
+        <v>114.6</v>
+      </c>
+      <c r="D140" s="1">
+        <v>87.24</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="1">
+        <v>130.94</v>
+      </c>
+      <c r="D141" s="1">
+        <v>144.56</v>
+      </c>
+      <c r="E141" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="1">
+        <v>106.02</v>
+      </c>
+      <c r="D142" s="1">
+        <v>131.44</v>
+      </c>
+      <c r="E142" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>40</v>
+      </c>
+      <c r="C143" s="1">
+        <v>115.22</v>
+      </c>
+      <c r="D143" s="1">
+        <v>114.16</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="1">
+        <v>97.56</v>
+      </c>
+      <c r="D144" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>40</v>
+      </c>
+      <c r="C145" s="1">
+        <v>87.24</v>
+      </c>
+      <c r="D145" s="1">
+        <v>114.6</v>
+      </c>
+      <c r="E145" t="s">
         <v>30</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Desktop\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CFE0A2-5A97-430C-AA21-3B08460A80E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93200D1-B0CA-4E7F-8604-25A135E53B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Min Table" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="42">
   <si>
     <t>Points Against</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
 </sst>
 </file>
@@ -518,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E131" sqref="E131"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2458,9 +2461,6 @@
       <c r="D134" s="1">
         <v>97.56</v>
       </c>
-      <c r="E134" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
@@ -2475,9 +2475,6 @@
       <c r="D135" s="1">
         <v>130.94</v>
       </c>
-      <c r="E135" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
@@ -2492,9 +2489,6 @@
       <c r="D136" s="1">
         <v>115.92</v>
       </c>
-      <c r="E136" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
@@ -2509,9 +2503,6 @@
       <c r="D137" s="1">
         <v>115.22</v>
       </c>
-      <c r="E137" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
@@ -2526,9 +2517,6 @@
       <c r="D138" s="1">
         <v>106.02</v>
       </c>
-      <c r="E138" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
@@ -2543,9 +2531,6 @@
       <c r="D139" s="1">
         <v>92.26</v>
       </c>
-      <c r="E139" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
@@ -2560,9 +2545,6 @@
       <c r="D140" s="1">
         <v>87.24</v>
       </c>
-      <c r="E140" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
@@ -2577,9 +2559,6 @@
       <c r="D141" s="1">
         <v>144.56</v>
       </c>
-      <c r="E141" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
@@ -2594,9 +2573,6 @@
       <c r="D142" s="1">
         <v>131.44</v>
       </c>
-      <c r="E142" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
@@ -2611,9 +2587,6 @@
       <c r="D143" s="1">
         <v>114.16</v>
       </c>
-      <c r="E143" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
@@ -2628,9 +2601,6 @@
       <c r="D144" s="1">
         <v>90.8</v>
       </c>
-      <c r="E144" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
@@ -2645,7 +2615,208 @@
       <c r="D145" s="1">
         <v>114.6</v>
       </c>
-      <c r="E145" t="s">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C146" s="1">
+        <v>119.14</v>
+      </c>
+      <c r="D146" s="1">
+        <v>81.62</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>41</v>
+      </c>
+      <c r="C147" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>98.72</v>
+      </c>
+      <c r="E147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>41</v>
+      </c>
+      <c r="C148" s="1">
+        <v>89.74</v>
+      </c>
+      <c r="D148" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="1">
+        <v>115.3</v>
+      </c>
+      <c r="D149" s="1">
+        <v>140.96</v>
+      </c>
+      <c r="E149" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="1">
+        <v>140.96</v>
+      </c>
+      <c r="D150" s="1">
+        <v>115.3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>35</v>
+      </c>
+      <c r="B151" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="1">
+        <v>106.78</v>
+      </c>
+      <c r="D151" s="1">
+        <v>120.6</v>
+      </c>
+      <c r="E151" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" s="1">
+        <v>123.72</v>
+      </c>
+      <c r="D152" s="1">
+        <v>111.86</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" s="1">
+        <v>111.86</v>
+      </c>
+      <c r="D153" s="1">
+        <v>123.72</v>
+      </c>
+      <c r="E153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="1">
+        <v>74.5</v>
+      </c>
+      <c r="D154" s="1">
+        <v>89.74</v>
+      </c>
+      <c r="E154" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" s="1">
+        <v>81.62</v>
+      </c>
+      <c r="D155" s="1">
+        <v>119.14</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" t="s">
+        <v>41</v>
+      </c>
+      <c r="C156" s="1">
+        <v>98.72</v>
+      </c>
+      <c r="D156" s="1">
+        <v>102.1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="1">
+        <v>120.6</v>
+      </c>
+      <c r="D157" s="1">
+        <v>106.78</v>
+      </c>
+      <c r="E157" t="s">
         <v>30</v>
       </c>
     </row>

--- a/FFL_Data.xlsx
+++ b/FFL_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelrade\Desktop\FFL-Dash-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93200D1-B0CA-4E7F-8604-25A135E53B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEBA865-CC3E-4B1D-A901-90AB0D546EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A355A56-67D3-4EBE-9422-BA10374FFA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="43">
   <si>
     <t>Points Against</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -521,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FD601-2028-0A4F-BA12-553C96356FC4}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C158" sqref="C158"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2629,9 +2632,6 @@
       <c r="D146" s="1">
         <v>81.62</v>
       </c>
-      <c r="E146" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
@@ -2646,9 +2646,6 @@
       <c r="D147" s="1">
         <v>98.72</v>
       </c>
-      <c r="E147" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
@@ -2663,9 +2660,6 @@
       <c r="D148" s="1">
         <v>74.5</v>
       </c>
-      <c r="E148" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
@@ -2680,9 +2674,6 @@
       <c r="D149" s="1">
         <v>140.96</v>
       </c>
-      <c r="E149" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
@@ -2697,9 +2688,6 @@
       <c r="D150" s="1">
         <v>115.3</v>
       </c>
-      <c r="E150" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
@@ -2714,9 +2702,6 @@
       <c r="D151" s="1">
         <v>120.6</v>
       </c>
-      <c r="E151" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
@@ -2731,9 +2716,6 @@
       <c r="D152" s="1">
         <v>111.86</v>
       </c>
-      <c r="E152" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
@@ -2748,9 +2730,6 @@
       <c r="D153" s="1">
         <v>123.72</v>
       </c>
-      <c r="E153" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
@@ -2765,9 +2744,6 @@
       <c r="D154" s="1">
         <v>89.74</v>
       </c>
-      <c r="E154" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
@@ -2782,9 +2758,6 @@
       <c r="D155" s="1">
         <v>119.14</v>
       </c>
-      <c r="E155" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
@@ -2799,9 +2772,6 @@
       <c r="D156" s="1">
         <v>102.1</v>
       </c>
-      <c r="E156" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
@@ -2816,7 +2786,208 @@
       <c r="D157" s="1">
         <v>106.78</v>
       </c>
-      <c r="E157" t="s">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" s="1">
+        <v>91.16</v>
+      </c>
+      <c r="D158" s="1">
+        <v>76.56</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159" s="1">
+        <v>100.08</v>
+      </c>
+      <c r="D159" s="1">
+        <v>107.68</v>
+      </c>
+      <c r="E159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="1">
+        <v>85.92</v>
+      </c>
+      <c r="D160" s="1">
+        <v>101.18</v>
+      </c>
+      <c r="E160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161" s="1">
+        <v>101.18</v>
+      </c>
+      <c r="D161" s="1">
+        <v>85.92</v>
+      </c>
+      <c r="E161" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162" s="1">
+        <v>76.56</v>
+      </c>
+      <c r="D162" s="1">
+        <v>91.16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>35</v>
+      </c>
+      <c r="B163" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163" s="1">
+        <v>109.76</v>
+      </c>
+      <c r="D163" s="1">
+        <v>117.02</v>
+      </c>
+      <c r="E163" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>42</v>
+      </c>
+      <c r="C164" s="1">
+        <v>110.88</v>
+      </c>
+      <c r="D164" s="1">
+        <v>105.6</v>
+      </c>
+      <c r="E164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>42</v>
+      </c>
+      <c r="C165" s="1">
+        <v>89.62</v>
+      </c>
+      <c r="D165" s="1">
+        <v>115.26</v>
+      </c>
+      <c r="E165" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>17</v>
+      </c>
+      <c r="B166" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="1">
+        <v>117.02</v>
+      </c>
+      <c r="D166" s="1">
+        <v>109.76</v>
+      </c>
+      <c r="E166" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="1">
+        <v>107.68</v>
+      </c>
+      <c r="D167" s="1">
+        <v>100.08</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" t="s">
+        <v>42</v>
+      </c>
+      <c r="C168" s="1">
+        <v>105.6</v>
+      </c>
+      <c r="D168" s="1">
+        <v>110.88</v>
+      </c>
+      <c r="E168" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" s="1">
+        <v>115.26</v>
+      </c>
+      <c r="D169" s="1">
+        <v>89.62</v>
+      </c>
+      <c r="E169" t="s">
         <v>30</v>
       </c>
     </row>
